--- a/media/template.xlsx
+++ b/media/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelnv/python/course/module1/project/media/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenab\Desktop\my\bibliography-generator\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D214F9-F66B-194A-AA07-D1DE2931A26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE00124-864E-481D-8171-22423FDBE0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="760" windowWidth="32040" windowHeight="17440" xr2:uid="{1807092D-0DC2-8D42-BD0F-6967B3E6F74C}"/>
+    <workbookView xWindow="1515" yWindow="4095" windowWidth="20925" windowHeight="11505" activeTab="3" xr2:uid="{1807092D-0DC2-8D42-BD0F-6967B3E6F74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Книга" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>Фамилии и инициалы авторов</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>http://www.tapemark.narod.ru/les/index.html</t>
+  </si>
+  <si>
+    <t>канд.</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -330,10 +333,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -344,9 +344,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="71">
     <dxf>
@@ -703,9 +703,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -743,7 +743,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -849,7 +849,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -991,7 +991,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1001,22 +1001,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9485DB95-4C34-684F-A5A5-455A0D71C5A5}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.875" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1136,7 +1136,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1145,7 +1145,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1154,7 +1154,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1163,7 +1163,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1172,7 +1172,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1197,15 +1197,15 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.1640625" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" customWidth="1"/>
+    <col min="1" max="1" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="53.125" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -1247,51 +1247,51 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D4" s="4">
         <v>44197</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1318,20 +1318,20 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.625" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>37510</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1400,7 +1400,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1411,7 +1411,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1422,7 +1422,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1433,7 +1433,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1444,7 +1444,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1455,7 +1455,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1466,7 +1466,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1490,23 +1490,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA460EB4-94E1-174E-88D1-126827D78EC4}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
     <col min="2" max="2" width="59.5" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1532,20 +1532,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1558,7 +1558,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1568,7 +1568,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1578,7 +1578,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1588,7 +1588,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1598,7 +1598,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1608,7 +1608,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1618,7 +1618,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1628,7 +1628,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1657,19 +1657,19 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.375" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1695,20 +1695,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1721,7 +1721,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1731,7 +1731,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1741,7 +1741,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1751,7 +1751,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1761,7 +1761,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1771,7 +1771,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1781,7 +1781,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1791,7 +1791,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1820,17 +1820,17 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" customWidth="1"/>
+    <col min="3" max="3" width="49.875" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1850,27 +1850,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="2">
         <v>2020</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1878,7 +1878,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1886,7 +1886,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1894,7 +1894,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1902,7 +1902,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1910,7 +1910,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1918,7 +1918,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1926,7 +1926,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1950,18 +1950,18 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1984,30 +1984,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>2020</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2016,7 +2016,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2025,7 +2025,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2034,7 +2034,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2043,7 +2043,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2052,7 +2052,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2061,7 +2061,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2070,7 +2070,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2095,17 +2095,17 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2125,27 +2125,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="2">
         <v>1980</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2153,7 +2153,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2161,7 +2161,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2169,7 +2169,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2177,7 +2177,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2185,7 +2185,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2193,7 +2193,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2201,7 +2201,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
